--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,379 +67,382 @@
     <t>negative</t>
   </si>
   <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>fantastic</t>
+    <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>dough</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>durable</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>fast</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>purchased</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>buy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>handle</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -803,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -872,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -890,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -922,13 +925,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -940,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -972,13 +975,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -990,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1014,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1022,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3584905660377358</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1040,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1072,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3023255813953488</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1090,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1114,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1122,13 +1125,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.217948717948718</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1140,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1164,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1172,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2121212121212121</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1190,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8390092879256966</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L9">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1222,13 +1225,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1405405405405405</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1240,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1264,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1272,13 +1275,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7692307692307693</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,13 +1301,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7532467532467533</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,10 +1330,10 @@
         <v>0.75</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,7 +1353,7 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L14">
         <v>32</v>
@@ -1368,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1402,13 +1405,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6711864406779661</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L16">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1428,13 +1431,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1454,13 +1457,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1480,13 +1483,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1506,13 +1509,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6530612244897959</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1532,13 +1535,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6508828250401284</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L21">
-        <v>811</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>811</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>435</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1558,13 +1561,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L22">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1576,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1584,13 +1587,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6239316239316239</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L23">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1602,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1610,13 +1613,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5964912280701754</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1636,13 +1639,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.59375</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1662,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5925925925925926</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1680,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1688,13 +1691,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5915492957746479</v>
+        <v>0.6284109149277689</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>783</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>783</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1714,13 +1717,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5846153846153846</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1732,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1740,13 +1743,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5769230769230769</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1766,13 +1769,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5735294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1784,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1792,13 +1795,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1818,13 +1821,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1836,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1844,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5571428571428572</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L33">
         <v>39</v>
@@ -1862,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1870,13 +1873,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.55</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1896,13 +1899,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5294117647058824</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1914,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1922,13 +1925,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5288461538461539</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1948,13 +1951,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.525</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1966,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1974,13 +1977,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5151515151515151</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2000,13 +2003,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5089820359281437</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L39">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2018,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2026,13 +2029,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.4861111111111111</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2044,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2052,13 +2055,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4761904761904762</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2070,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2078,13 +2081,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2096,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2104,13 +2107,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4698795180722892</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2122,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2130,13 +2133,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4615384615384616</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2148,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2156,13 +2159,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4444444444444444</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2182,13 +2185,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.44</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2208,13 +2211,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4342105263157895</v>
+        <v>0.45</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2226,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2234,13 +2237,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4285714285714285</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2252,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2260,13 +2263,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4262295081967213</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2286,13 +2289,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.4210526315789473</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2304,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2338,13 +2341,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.4166666666666667</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2364,13 +2367,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.3975903614457831</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L53">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2382,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2416,13 +2419,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.3902439024390244</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2434,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2442,13 +2445,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2460,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2468,13 +2471,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3504901960784313</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L57">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="M57">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2486,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>265</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2494,13 +2497,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3454545454545455</v>
+        <v>0.3799019607843137</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2512,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>36</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2520,13 +2523,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3424124513618677</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L59">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="M59">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2538,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>169</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2546,13 +2549,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3423423423423423</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L60">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2564,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2572,13 +2575,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.3382352941176471</v>
+        <v>0.35</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2590,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2598,13 +2601,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3294117647058823</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2616,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2624,13 +2627,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3267326732673267</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L63">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M63">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2642,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2702,13 +2705,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.3232876712328767</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L66">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2720,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>494</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2728,13 +2731,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.2870813397129187</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L67">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M67">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2746,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>149</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2754,13 +2757,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.2833333333333333</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2772,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2780,13 +2783,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.2781954887218045</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L69">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2798,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>96</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2806,13 +2809,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.2781456953642384</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L70">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M70">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2824,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2832,13 +2835,13 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2685185185185185</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L71">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2850,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2858,13 +2861,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2638888888888889</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2884,13 +2887,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2612612612612613</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L73">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2902,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2910,13 +2913,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2604951560818084</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L74">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>687</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2936,13 +2939,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.25</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M75">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>63</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2962,13 +2965,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2385321100917431</v>
+        <v>0.2680301399354144</v>
       </c>
       <c r="L76">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="M76">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2980,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>83</v>
+        <v>680</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2988,13 +2991,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2380952380952381</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3006,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3014,13 +3017,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2351097178683386</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L78">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3032,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>244</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3040,13 +3043,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.234375</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3058,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3066,13 +3069,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.23</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3084,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3092,13 +3095,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2213114754098361</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L81">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M81">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3118,13 +3121,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.2207792207792208</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3136,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>60</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3144,25 +3147,25 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.2147651006711409</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="L83">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M83">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3170,13 +3173,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.2121212121212121</v>
+        <v>0.2145695364238411</v>
       </c>
       <c r="L84">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="M84">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3188,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>78</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3196,13 +3199,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.2117647058823529</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3214,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3222,13 +3225,13 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.2105960264900662</v>
+        <v>0.20076726342711</v>
       </c>
       <c r="L86">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M86">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>596</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3248,13 +3251,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.2083333333333333</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3266,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3274,13 +3277,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.20076726342711</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="L88">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="M88">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3292,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>625</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3300,25 +3303,25 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1973684210526316</v>
+        <v>0.1875</v>
       </c>
       <c r="L89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M89">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3326,13 +3329,13 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1847826086956522</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="L90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3344,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3352,25 +3355,25 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1827956989247312</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3378,13 +3381,13 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1794871794871795</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="L92">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M92">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3396,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3404,25 +3407,25 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1785714285714286</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M93">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3430,13 +3433,13 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1782945736434109</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3448,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3456,13 +3459,13 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1724137931034483</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L95">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M95">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3474,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>168</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3482,13 +3485,13 @@
         <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1656441717791411</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L96">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M96">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3500,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3508,25 +3511,25 @@
         <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1621621621621622</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L97">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M97">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="N97">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>310</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3534,13 +3537,13 @@
         <v>112</v>
       </c>
       <c r="K98">
-        <v>0.147766323024055</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L98">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M98">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3552,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3560,13 +3563,13 @@
         <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1454545454545454</v>
+        <v>0.16</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3578,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3586,13 +3589,13 @@
         <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1439114391143911</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="L100">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M100">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3604,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>232</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3612,25 +3615,25 @@
         <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1412429378531073</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M101">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3638,13 +3641,13 @@
         <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1372549019607843</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L102">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M102">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3656,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3664,13 +3667,13 @@
         <v>117</v>
       </c>
       <c r="K103">
-        <v>0.1363636363636364</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="L103">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M103">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3682,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>380</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3690,13 +3693,13 @@
         <v>118</v>
       </c>
       <c r="K104">
-        <v>0.1346153846153846</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="L104">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M104">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3708,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>135</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3716,7 +3719,7 @@
         <v>119</v>
       </c>
       <c r="K105">
-        <v>0.1341463414634146</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L105">
         <v>22</v>
@@ -3734,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3742,13 +3745,13 @@
         <v>120</v>
       </c>
       <c r="K106">
-        <v>0.1336515513126492</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L106">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M106">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3760,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>363</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3768,13 +3771,13 @@
         <v>121</v>
       </c>
       <c r="K107">
-        <v>0.1313868613138686</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L107">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M107">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3786,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>357</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3794,13 +3797,13 @@
         <v>122</v>
       </c>
       <c r="K108">
-        <v>0.1307692307692308</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L108">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3812,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>113</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3820,13 +3823,13 @@
         <v>123</v>
       </c>
       <c r="K109">
-        <v>0.1221374045801527</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L109">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M109">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3838,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3846,13 +3849,13 @@
         <v>124</v>
       </c>
       <c r="K110">
-        <v>0.1201923076923077</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L110">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M110">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3864,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>183</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3872,13 +3875,13 @@
         <v>125</v>
       </c>
       <c r="K111">
-        <v>0.1180555555555556</v>
+        <v>0.125</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3890,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3898,13 +3901,13 @@
         <v>126</v>
       </c>
       <c r="K112">
-        <v>0.1120218579234973</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L112">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M112">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3916,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>325</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3924,13 +3927,13 @@
         <v>127</v>
       </c>
       <c r="K113">
-        <v>0.1111111111111111</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L113">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M113">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3942,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>240</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3950,25 +3953,25 @@
         <v>128</v>
       </c>
       <c r="K114">
-        <v>0.1092436974789916</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="L114">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M114">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3976,25 +3979,25 @@
         <v>129</v>
       </c>
       <c r="K115">
-        <v>0.1045751633986928</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L115">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M115">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4002,13 +4005,13 @@
         <v>130</v>
       </c>
       <c r="K116">
-        <v>0.1008771929824561</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L116">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M116">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4020,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>410</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4028,25 +4031,25 @@
         <v>131</v>
       </c>
       <c r="K117">
-        <v>0.09469153515064563</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="L117">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M117">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N117">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>631</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4080,13 +4083,13 @@
         <v>133</v>
       </c>
       <c r="K119">
-        <v>0.07850467289719626</v>
+        <v>0.08895265423242468</v>
       </c>
       <c r="L119">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M119">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="N119">
         <v>0.98</v>
@@ -4098,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>986</v>
+        <v>635</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4106,13 +4109,13 @@
         <v>134</v>
       </c>
       <c r="K120">
-        <v>0.07106598984771574</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L120">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M120">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4124,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>366</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4132,25 +4135,25 @@
         <v>135</v>
       </c>
       <c r="K121">
-        <v>0.07037037037037037</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L121">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M121">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>502</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4158,25 +4161,25 @@
         <v>136</v>
       </c>
       <c r="K122">
-        <v>0.06854838709677419</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="L122">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="M122">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>231</v>
+        <v>990</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4184,13 +4187,13 @@
         <v>137</v>
       </c>
       <c r="K123">
-        <v>0.0625</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="L123">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M123">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4202,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4210,25 +4213,25 @@
         <v>138</v>
       </c>
       <c r="K124">
-        <v>0.05509641873278237</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="L124">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M124">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N124">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>343</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4236,25 +4239,25 @@
         <v>139</v>
       </c>
       <c r="K125">
-        <v>0.04230769230769231</v>
+        <v>0.0521978021978022</v>
       </c>
       <c r="L125">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M125">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N125">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O125">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>498</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4262,25 +4265,25 @@
         <v>140</v>
       </c>
       <c r="K126">
-        <v>0.04116222760290557</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="L126">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M126">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N126">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O126">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4288,13 +4291,13 @@
         <v>141</v>
       </c>
       <c r="K127">
-        <v>0.04076322636600174</v>
+        <v>0.03816131830008673</v>
       </c>
       <c r="L127">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N127">
         <v>0.92</v>
@@ -4306,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4314,24 +4317,50 @@
         <v>142</v>
       </c>
       <c r="K128">
-        <v>0.02230971128608924</v>
+        <v>0.036468330134357</v>
       </c>
       <c r="L128">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M128">
+        <v>20</v>
+      </c>
+      <c r="N128">
+        <v>0.95</v>
+      </c>
+      <c r="O128">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P128" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K129">
+        <v>0.01973684210526316</v>
+      </c>
+      <c r="L129">
+        <v>15</v>
+      </c>
+      <c r="M129">
         <v>22</v>
       </c>
-      <c r="N128">
-        <v>0.77</v>
-      </c>
-      <c r="O128">
-        <v>0.23</v>
-      </c>
-      <c r="P128" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q128">
+      <c r="N129">
+        <v>0.68</v>
+      </c>
+      <c r="O129">
+        <v>0.32</v>
+      </c>
+      <c r="P129" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q129">
         <v>745</v>
       </c>
     </row>
